--- a/criticas/Bitacora.xlsx
+++ b/criticas/Bitacora.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algui\Desktop\Fase2\fase2Bahamonde001\criticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algui\Desktop\fase3\fase3Bahamonde001\criticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA9BEA-62A9-46CE-B1E2-F9C51E0DA726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6FC13C-6275-4039-A36E-82D33525EC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF9969E1-D60D-40CB-B372-C93F21E8D621}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF9969E1-D60D-40CB-B372-C93F21E8D621}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>N°</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>31-11-2020</t>
+  </si>
+  <si>
+    <t>Fase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N°</t>
+  </si>
+  <si>
+    <t>Implementar perfiles de Usuario</t>
+  </si>
+  <si>
+    <t>Crear Login utilizando servicios de Django</t>
+  </si>
+  <si>
+    <t>Implementar RF para perfil de administrador</t>
+  </si>
+  <si>
+    <t>Implementar RF para perfil de usuario</t>
+  </si>
+  <si>
+    <t>Implementar Test a views</t>
+  </si>
+  <si>
+    <t>Implementar Test a Forms</t>
+  </si>
+  <si>
+    <t>Agregar funcionalidades provenientes de una Api externa</t>
   </si>
 </sst>
 </file>
@@ -219,13 +246,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EF0021-1CDA-4950-99FF-6604BD00C75B}">
-  <dimension ref="A3:E36"/>
+  <dimension ref="A3:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +590,10 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -626,7 +653,7 @@
       <c r="D7" s="6">
         <v>44085</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -641,7 +668,7 @@
       <c r="D8" s="6">
         <v>44088</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -656,7 +683,7 @@
       <c r="D9" s="6">
         <v>44088</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -671,7 +698,7 @@
       <c r="D10" s="6">
         <v>44088</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -686,7 +713,7 @@
       <c r="D11" s="6">
         <v>44088</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -701,7 +728,7 @@
       <c r="D12" s="6">
         <v>44090</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -716,7 +743,7 @@
       <c r="D13" s="6">
         <v>44090</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -731,7 +758,7 @@
       <c r="D14" s="6">
         <v>44090</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -746,7 +773,7 @@
       <c r="D15" s="6">
         <v>44091</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -761,7 +788,7 @@
       <c r="D16" s="6">
         <v>44091</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -776,7 +803,7 @@
       <c r="D17" s="6">
         <v>44091</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -791,7 +818,7 @@
       <c r="D18" s="6">
         <v>44091</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -806,7 +833,7 @@
       <c r="D19" s="6">
         <v>44092</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -821,7 +848,7 @@
       <c r="D20" s="6">
         <v>44092</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -836,7 +863,7 @@
       <c r="D21" s="6">
         <v>44092</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -851,7 +878,7 @@
       <c r="D22" s="6">
         <v>44092</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -866,7 +893,7 @@
       <c r="D23" s="6">
         <v>44093</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -881,14 +908,14 @@
       <c r="D24" s="6">
         <v>44093</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -903,7 +930,7 @@
       <c r="D26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -918,7 +945,7 @@
       <c r="D27" s="6">
         <v>44162</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -933,7 +960,7 @@
       <c r="D28" s="6">
         <v>44162</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -948,7 +975,7 @@
       <c r="D29" s="6">
         <v>44163</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -963,7 +990,7 @@
       <c r="D30" s="6">
         <v>44164</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -978,7 +1005,7 @@
       <c r="D31" s="6">
         <v>44164</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -993,7 +1020,7 @@
       <c r="D32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1002,13 +1029,13 @@
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1023,7 +1050,7 @@
       <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1038,7 +1065,7 @@
       <c r="D35" s="6">
         <v>44136</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1053,28 +1080,162 @@
       <c r="D36" s="6">
         <v>44136</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44158</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44158</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44160</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44160</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44162</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44162</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44164</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44165</v>
+      </c>
+      <c r="E46" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+  <mergeCells count="44">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D22:E22"/>
@@ -1091,6 +1252,24 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
